--- a/main/paso5.xlsx
+++ b/main/paso5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,117 +441,202 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Temp</t>
+          <t>T-ene</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>T-feb</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>T-mar</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>T-abr</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>T-may</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>T-jun</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>T-jul</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>T-ago</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>T-sep</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>T-oct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>T-nov</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>T-Dic</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>precio/vuelo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>links</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>link_nocturno</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>link_monumentos</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>link_acuaticos</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>link_museos</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>link_spas</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>link_diversion</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>link_naturaleza</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>vida_nocturna</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>monumentos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>deportes_agua</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>museos</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>spas</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>diversion</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>naturaleza</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>poblacion</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>tamaño</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>buffet</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>americana</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>asiatica</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>italiana</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>coste</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>alquiler</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>vida+alquiler</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>comestibles</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>restaurantes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>calculo_viaje</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>presupuesto</t>
         </is>
       </c>
     </row>
@@ -561,81 +646,146 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alemania-Berlin</t>
+          <t>Italia-Roma</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.9</v>
+        <v>7.4</v>
       </c>
       <c r="D2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>19</v>
+      </c>
+      <c r="M2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O2" t="n">
+        <v>189</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c42-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c20-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c47-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c55-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c49-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c40-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c56-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c57-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v>327</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>926</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA2" t="n">
         <v>181</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c42-Berlin.html</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>372</v>
-      </c>
-      <c r="G2" t="n">
-        <v>380</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" t="n">
-        <v>194</v>
-      </c>
-      <c r="J2" t="n">
-        <v>111</v>
-      </c>
-      <c r="K2" t="n">
-        <v>129</v>
-      </c>
-      <c r="L2" t="n">
-        <v>96</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3645000</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="AB2" t="n">
+        <v>184</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>134</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>73</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>2873000</v>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>253</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>871</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1010</v>
-      </c>
-      <c r="S2" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="T2" t="n">
-        <v>26.85</v>
-      </c>
-      <c r="U2" t="n">
-        <v>48.04</v>
-      </c>
-      <c r="V2" t="n">
-        <v>54.27</v>
-      </c>
-      <c r="W2" t="n">
-        <v>63.56</v>
-      </c>
-      <c r="X2" t="n">
-        <v>405.72</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>586.72</v>
+      <c r="AG2" t="n">
+        <v>381</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>300</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>551</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>7836</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>58.34</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>75.72</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>415.5</v>
       </c>
     </row>
   </sheetData>

--- a/main/paso5.xlsx
+++ b/main/paso5.xlsx
@@ -636,7 +636,7 @@
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>calculo_viaje</t>
+          <t>presupuesto</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
         <v>75.72</v>
       </c>
       <c r="AP2" t="n">
-        <v>415.5</v>
+        <v>69.25</v>
       </c>
     </row>
   </sheetData>
